--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T10:41:06+00:00</t>
+    <t>2022-09-02T11:26:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T11:26:25+00:00</t>
+    <t>2022-09-02T11:38:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T11:38:41+00:00</t>
+    <t>2022-09-02T11:58:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T11:58:56+00:00</t>
+    <t>2022-09-02T12:49:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>This material contains content from LOINC (http://loinc.org). LOINC is copyright © 1995-2020, Regenstrief Institute, Inc. and the Logical Observation Identifiers Names and Codes (LOINC) Committee and is available at no cost under the license at http://loinc.org/license. LOINC® is a registered United States trademark of Regenstrief Institute, Inc</t>
   </si>
   <si>
     <t>Immutable</t>
@@ -360,15 +363,15 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -390,7 +393,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>21</v>
@@ -398,26 +401,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T12:49:53+00:00</t>
+    <t>2022-09-02T13:37:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T13:37:55+00:00</t>
+    <t>2022-09-02T13:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T13:46:03+00:00</t>
+    <t>2022-09-02T14:13:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T14:13:59+00:00</t>
+    <t>2022-09-02T14:17:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T14:17:12+00:00</t>
+    <t>2022-09-02T14:29:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T14:29:53+00:00</t>
+    <t>2022-09-02T14:35:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T14:35:52+00:00</t>
+    <t>2022-09-02T15:10:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T15:10:38+00:00</t>
+    <t>2022-09-03T01:46:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T01:46:21+00:00</t>
+    <t>2022-09-03T13:39:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T13:39:51+00:00</t>
+    <t>2022-09-05T02:07:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T02:07:34+00:00</t>
+    <t>2022-09-05T03:06:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T03:06:13+00:00</t>
+    <t>2022-09-05T04:03:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T04:03:43+00:00</t>
+    <t>2022-09-05T05:18:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T05:18:44+00:00</t>
+    <t>2022-09-05T06:29:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T06:29:27+00:00</t>
+    <t>2022-09-05T10:47:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T10:47:02+00:00</t>
+    <t>2022-09-05T23:00:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T23:00:51+00:00</t>
+    <t>2022-09-06T08:38:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T08:38:56+00:00</t>
+    <t>2022-09-06T09:29:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T09:29:54+00:00</t>
+    <t>2022-09-06T10:17:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T10:17:19+00:00</t>
+    <t>2022-09-07T00:39:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T00:39:19+00:00</t>
+    <t>2022-09-07T05:54:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T05:54:57+00:00</t>
+    <t>2022-09-07T09:10:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T09:10:58+00:00</t>
+    <t>2022-09-08T21:26:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T21:26:37+00:00</t>
+    <t>2022-09-09T09:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T09:52:21+00:00</t>
+    <t>2022-09-09T10:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T10:24:51+00:00</t>
+    <t>2022-09-09T11:04:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T11:04:14+00:00</t>
+    <t>2022-09-09T11:59:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T11:59:54+00:00</t>
+    <t>2022-09-09T22:38:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T22:38:47+00:00</t>
+    <t>2022-09-11T10:13:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-11T10:13:05+00:00</t>
+    <t>2022-09-12T00:20:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T00:20:59+00:00</t>
+    <t>2022-09-12T01:27:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T01:27:47+00:00</t>
+    <t>2022-09-12T01:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T01:48:10+00:00</t>
+    <t>2022-09-12T06:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T06:11:30+00:00</t>
+    <t>2022-09-12T14:45:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T14:45:14+00:00</t>
+    <t>2022-09-12T16:50:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T16:50:28+00:00</t>
+    <t>2022-09-12T22:07:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportradiologycode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T22:07:03+00:00</t>
+    <t>2022-09-12T23:10:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
